--- a/includes/images/mpi_perf_graphs.xlsx
+++ b/includes/images/mpi_perf_graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="569" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16460" tabRatio="569" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Allreduce" sheetId="5" r:id="rId1"/>
@@ -1473,11 +1473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1546136632"/>
-        <c:axId val="1548398104"/>
+        <c:axId val="-2124729112"/>
+        <c:axId val="2116531736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1546136632"/>
+        <c:axId val="-2124729112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1509,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1548398104"/>
+        <c:crossAx val="2116531736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1548398104"/>
+        <c:axId val="2116531736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1547,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1546136632"/>
+        <c:crossAx val="-2124729112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2539,11 +2539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1551777528"/>
-        <c:axId val="1552259480"/>
+        <c:axId val="1536826376"/>
+        <c:axId val="1536832040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1551777528"/>
+        <c:axId val="1536826376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2575,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1552259480"/>
+        <c:crossAx val="1536832040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2583,7 +2583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1552259480"/>
+        <c:axId val="1536832040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1551777528"/>
+        <c:crossAx val="1536826376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4049,11 +4049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1546447208"/>
-        <c:axId val="1550609528"/>
+        <c:axId val="1536881192"/>
+        <c:axId val="1536886856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1546447208"/>
+        <c:axId val="1536881192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4085,7 +4085,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550609528"/>
+        <c:crossAx val="1536886856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4093,7 +4093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1550609528"/>
+        <c:axId val="1536886856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,7 +4123,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1546447208"/>
+        <c:crossAx val="1536881192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5115,11 +5115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1548286904"/>
-        <c:axId val="1548292520"/>
+        <c:axId val="1536924600"/>
+        <c:axId val="1536930264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1548286904"/>
+        <c:axId val="1536924600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5151,7 +5151,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1548292520"/>
+        <c:crossAx val="1536930264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5159,7 +5159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1548292520"/>
+        <c:axId val="1536930264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,7 +5189,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1548286904"/>
+        <c:crossAx val="1536924600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6625,11 +6625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1550701672"/>
-        <c:axId val="1550707288"/>
+        <c:axId val="1536979608"/>
+        <c:axId val="1536985272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1550701672"/>
+        <c:axId val="1536979608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,7 +6661,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550707288"/>
+        <c:crossAx val="1536985272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6669,7 +6669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1550707288"/>
+        <c:axId val="1536985272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6699,7 +6699,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550701672"/>
+        <c:crossAx val="1536979608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7691,11 +7691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1550744232"/>
-        <c:axId val="1546041368"/>
+        <c:axId val="1537022776"/>
+        <c:axId val="1537028392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1550744232"/>
+        <c:axId val="1537022776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,7 +7727,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1546041368"/>
+        <c:crossAx val="1537028392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7735,7 +7735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1546041368"/>
+        <c:axId val="1537028392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7765,7 +7765,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550744232"/>
+        <c:crossAx val="1537022776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9180,11 +9180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1549039864"/>
-        <c:axId val="-2125449272"/>
+        <c:axId val="1537076936"/>
+        <c:axId val="1537082600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1549039864"/>
+        <c:axId val="1537076936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,7 +9216,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125449272"/>
+        <c:crossAx val="1537082600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9224,7 +9224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125449272"/>
+        <c:axId val="1537082600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9254,7 +9254,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1549039864"/>
+        <c:crossAx val="1537076936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9310,12 +9310,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Performance of MPI Allreduce </a:t>
+              <a:t>Performance of MPI Alltoall </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000"/>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -10225,11 +10227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1545816264"/>
-        <c:axId val="1548257064"/>
+        <c:axId val="1537118728"/>
+        <c:axId val="1537124344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1545816264"/>
+        <c:axId val="1537118728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10261,7 +10263,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1548257064"/>
+        <c:crossAx val="1537124344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10269,7 +10271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1548257064"/>
+        <c:axId val="1537124344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10299,7 +10301,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1545816264"/>
+        <c:crossAx val="1537118728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11270,11 +11272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1551869832"/>
-        <c:axId val="1552358712"/>
+        <c:axId val="1545445624"/>
+        <c:axId val="-2134041176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1551869832"/>
+        <c:axId val="1545445624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11306,7 +11308,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1552358712"/>
+        <c:crossAx val="-2134041176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11314,7 +11316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1552358712"/>
+        <c:axId val="-2134041176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11344,7 +11346,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1551869832"/>
+        <c:crossAx val="1545445624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12780,11 +12782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1941779640"/>
-        <c:axId val="1987594264"/>
+        <c:axId val="1548678968"/>
+        <c:axId val="2121568040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1941779640"/>
+        <c:axId val="1548678968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12816,7 +12818,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1987594264"/>
+        <c:crossAx val="2121568040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12824,7 +12826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1987594264"/>
+        <c:axId val="2121568040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12854,7 +12856,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1941779640"/>
+        <c:crossAx val="1548678968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13852,11 +13854,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1547747688"/>
-        <c:axId val="1987464424"/>
+        <c:axId val="-2120112808"/>
+        <c:axId val="1543563224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1547747688"/>
+        <c:axId val="-2120112808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13888,7 +13890,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1987464424"/>
+        <c:crossAx val="1543563224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13896,7 +13898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1987464424"/>
+        <c:axId val="1543563224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13926,7 +13928,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1547747688"/>
+        <c:crossAx val="-2120112808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15362,11 +15364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1551806712"/>
-        <c:axId val="1549630456"/>
+        <c:axId val="-2125417560"/>
+        <c:axId val="-2125370696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1551806712"/>
+        <c:axId val="-2125417560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15398,7 +15400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1549630456"/>
+        <c:crossAx val="-2125370696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15406,7 +15408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1549630456"/>
+        <c:axId val="-2125370696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15436,7 +15438,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1551806712"/>
+        <c:crossAx val="-2125417560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16428,11 +16430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1551658600"/>
-        <c:axId val="1543393464"/>
+        <c:axId val="1536548632"/>
+        <c:axId val="-2125278856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1551658600"/>
+        <c:axId val="1536548632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16464,7 +16466,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1543393464"/>
+        <c:crossAx val="-2125278856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16472,7 +16474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1543393464"/>
+        <c:axId val="-2125278856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16502,7 +16504,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1551658600"/>
+        <c:crossAx val="1536548632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17938,11 +17940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1548217432"/>
-        <c:axId val="1544837208"/>
+        <c:axId val="1536687848"/>
+        <c:axId val="1536693528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1548217432"/>
+        <c:axId val="1536687848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17974,7 +17976,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1544837208"/>
+        <c:crossAx val="1536693528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17982,7 +17984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1544837208"/>
+        <c:axId val="1536693528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18012,7 +18014,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1548217432"/>
+        <c:crossAx val="1536687848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19004,11 +19006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1552419992"/>
-        <c:axId val="1542615512"/>
+        <c:axId val="1536727960"/>
+        <c:axId val="1536733624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1552419992"/>
+        <c:axId val="1536727960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19040,7 +19042,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1542615512"/>
+        <c:crossAx val="1536733624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19048,7 +19050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1542615512"/>
+        <c:axId val="1536733624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19078,7 +19080,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1552419992"/>
+        <c:crossAx val="1536727960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20514,11 +20516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1548003304"/>
-        <c:axId val="1548008920"/>
+        <c:axId val="1536783832"/>
+        <c:axId val="1536789496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1548003304"/>
+        <c:axId val="1536783832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20550,7 +20552,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1548008920"/>
+        <c:crossAx val="1536789496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20558,7 +20560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1548008920"/>
+        <c:axId val="1536789496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20588,7 +20590,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1548003304"/>
+        <c:crossAx val="1536783832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21496,8 +21498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22473,7 +22475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -23450,7 +23452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -24427,7 +24429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -25404,7 +25406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="G25" workbookViewId="0">
       <selection activeCell="I36" sqref="I36:I37"/>
     </sheetView>
   </sheetViews>
@@ -26382,7 +26384,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27358,7 +27360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
+    <sheetView topLeftCell="D28" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -28335,8 +28337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
